--- a/svea/logs/excel_logs/excel_linear.xlsx
+++ b/svea/logs/excel_logs/excel_linear.xlsx
@@ -9032,7 +9032,7 @@
         <v>52</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
